--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -25,7 +25,10 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[(10, 0)]</t>
+    <t>[(0, 1), (4, 0)]</t>
+  </si>
+  <si>
+    <t>[(0, 1), (2, 1), (4, 0)]</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +421,7 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +429,7 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +437,7 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +445,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +453,7 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +461,7 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +469,7 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -22,13 +22,16 @@
     <t>Abstain Instances (Index, True Label)</t>
   </si>
   <si>
+    <t>Tested Instance</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[(0, 1), (4, 0)]</t>
+    <t>[(0, 0)]</t>
   </si>
   <si>
-    <t>[(0, 1), (2, 1), (4, 0)]</t>
+    <t>Signal_15c</t>
   </si>
 </sst>
 </file>
@@ -386,90 +389,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Abstain Instances (Index, True Label)</t>
   </si>
   <si>
-    <t>Tested Instance</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[(0, 0)]</t>
+    <t>[(53, 1)]</t>
   </si>
   <si>
-    <t>Signal_15c</t>
+    <t>[(26, 0), (53, 1)]</t>
   </si>
 </sst>
 </file>
@@ -389,120 +386,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -22,13 +22,16 @@
     <t>Abstain Instances (Index, True Label)</t>
   </si>
   <si>
+    <t>Tested Instance</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[(53, 1)]</t>
+    <t>[(0, 0)]</t>
   </si>
   <si>
-    <t>[(26, 0), (53, 1)]</t>
+    <t>Signal_15c</t>
   </si>
 </sst>
 </file>
@@ -386,90 +389,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
